--- a/medicine/Pharmacie/Classe_ATC_V01/Classe_ATC_V01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_V01/Classe_ATC_V01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V01, dénommée « Allergènes », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V01, dénommée « Allergènes », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V01AA Extraits d'allergènes
-V01AA01 Plume
+          <t>V01AA Extraits d'allergènes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V01AA01 Plume
 V01AA02 Pollen de graminées
 V01AA03 Acariens de poussière de maison
 V01AA04 Moisissures de champignons et levures
